--- a/config_7.20/task_server.xlsx
+++ b/config_7.20/task_server.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.20\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
     <sheet name="process_data" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="8" r:id="rId3"/>
-    <sheet name="award_data" sheetId="4" r:id="rId4"/>
-    <sheet name="condition" sheetId="5" r:id="rId5"/>
+    <sheet name="condition" sheetId="5" r:id="rId4"/>
+    <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -219,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -229,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,6 +430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -503,6 +512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -513,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -523,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -543,6 +556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -564,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,6 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -584,6 +600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -596,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -606,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -616,6 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -628,6 +648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -638,6 +659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -648,6 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -663,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -673,6 +697,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -683,6 +708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -698,6 +724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -733,6 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -758,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -794,6 +826,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -804,6 +837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -814,6 +848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -824,6 +859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -950,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,6 +997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -981,6 +1019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -991,6 +1030,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1003,6 +1043,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1013,6 +1054,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1073,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1083,6 +1126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1131,6 +1175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1141,6 +1186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1162,6 +1208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1172,6 +1219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,6 +1230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1192,6 +1241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1202,6 +1252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1217,6 +1268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1227,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1239,6 +1292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1249,6 +1303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1261,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1271,6 +1327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1283,6 +1340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1293,6 +1351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1377,6 +1436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1387,6 +1447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1645,6 +1706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1655,6 +1717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2073,14 +2136,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2092,17 +2149,19 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2110,159 +2169,32 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2271,19 +2203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,13 +2239,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,162 +2263,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2520,254 +2302,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2775,7 +2315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2891,13 +2431,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2906,7 +2443,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,75 +2509,38 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,17 +2798,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
@@ -3330,7 +2830,7 @@
     <col min="20" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:21">
+    <row r="1" spans="1:21" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +2882,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="1:18">
+    <row r="2" spans="1:21" ht="43.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3422,10 +2922,10 @@
       <c r="O2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-    </row>
-    <row r="3" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:21" ht="43.5" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3465,10 +2965,10 @@
       <c r="O3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-    </row>
-    <row r="4" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
+    </row>
+    <row r="4" spans="1:21" ht="43.5" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3508,10 +3008,10 @@
       <c r="O4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
-    </row>
-    <row r="5" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+    </row>
+    <row r="5" spans="1:21" ht="43.5" customHeight="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3551,10 +3051,10 @@
       <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:15">
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3595,7 +3095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:15">
+    <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3636,7 +3136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:15">
+    <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3677,7 +3177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:21">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3715,7 +3215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:21">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3750,7 +3250,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:21">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3785,7 +3285,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:21">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3820,7 +3320,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:21">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3855,7 +3355,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:21">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3890,14 +3390,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:21">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -3925,7 +3425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:21">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5150,7 +4650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" spans="1:11">
+    <row r="51" spans="1:11" s="13" customFormat="1">
       <c r="A51" s="13">
         <v>51</v>
       </c>
@@ -5185,7 +4685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="1" spans="1:11">
+    <row r="52" spans="1:11" s="13" customFormat="1">
       <c r="A52" s="13">
         <v>52</v>
       </c>
@@ -5220,7 +4720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" spans="1:11">
+    <row r="53" spans="1:11" s="13" customFormat="1">
       <c r="A53" s="13">
         <v>53</v>
       </c>
@@ -5745,7 +5245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" s="38" customFormat="1" spans="1:11">
+    <row r="68" spans="1:11" s="38" customFormat="1">
       <c r="A68" s="38">
         <v>68</v>
       </c>
@@ -5758,7 +5258,7 @@
       <c r="D68" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="71" t="s">
+      <c r="E68" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="38">
@@ -5780,7 +5280,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="69" s="13" customFormat="1" spans="1:11">
+    <row r="69" spans="1:11" s="13" customFormat="1">
       <c r="A69" s="13">
         <v>69</v>
       </c>
@@ -5815,7 +5315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" s="13" customFormat="1" spans="1:11">
+    <row r="70" spans="1:11" s="13" customFormat="1">
       <c r="A70" s="13">
         <v>70</v>
       </c>
@@ -5850,7 +5350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" s="13" customFormat="1" spans="1:11">
+    <row r="71" spans="1:11" s="13" customFormat="1">
       <c r="A71" s="13">
         <v>71</v>
       </c>
@@ -5885,7 +5385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" s="13" customFormat="1" spans="1:11">
+    <row r="72" spans="1:11" s="13" customFormat="1">
       <c r="A72" s="13">
         <v>72</v>
       </c>
@@ -5920,7 +5420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" s="13" customFormat="1" spans="1:11">
+    <row r="73" spans="1:11" s="13" customFormat="1">
       <c r="A73" s="13">
         <v>73</v>
       </c>
@@ -5955,7 +5455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" s="13" customFormat="1" spans="1:11">
+    <row r="74" spans="1:11" s="13" customFormat="1">
       <c r="A74" s="13">
         <v>74</v>
       </c>
@@ -5990,7 +5490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" s="13" customFormat="1" spans="1:11">
+    <row r="75" spans="1:11" s="13" customFormat="1">
       <c r="A75" s="13">
         <v>75</v>
       </c>
@@ -6025,17 +5525,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" s="38" customFormat="1" spans="1:11">
+    <row r="76" spans="1:11" s="38" customFormat="1">
       <c r="A76" s="38">
         <v>76</v>
       </c>
       <c r="B76" s="38">
         <v>0</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="38" t="s">
@@ -6060,7 +5560,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="77" s="38" customFormat="1" spans="1:11">
+    <row r="77" spans="1:11" s="38" customFormat="1">
       <c r="A77" s="38">
         <v>77</v>
       </c>
@@ -6070,7 +5570,7 @@
       <c r="C77" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="38" t="s">
@@ -6095,112 +5595,112 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="58" customFormat="1" spans="1:11">
-      <c r="A78" s="58">
+    <row r="78" spans="1:11" s="57" customFormat="1">
+      <c r="A78" s="57">
         <v>78</v>
       </c>
-      <c r="B78" s="58">
-        <v>1</v>
-      </c>
-      <c r="C78" s="72" t="s">
+      <c r="B78" s="57">
+        <v>1</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="57">
         <v>78</v>
       </c>
-      <c r="G78" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="58">
-        <v>1</v>
-      </c>
-      <c r="I78" s="58">
+      <c r="G78" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="57">
+        <v>1</v>
+      </c>
+      <c r="I78" s="57">
         <v>946656000</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="58">
+      <c r="K78" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="58" customFormat="1" spans="1:11">
-      <c r="A79" s="58">
+    <row r="79" spans="1:11" s="57" customFormat="1">
+      <c r="A79" s="57">
         <v>79</v>
       </c>
-      <c r="B79" s="58">
-        <v>1</v>
-      </c>
-      <c r="C79" s="72" t="s">
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="72" t="s">
+      <c r="D79" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="72" t="s">
+      <c r="E79" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="57">
         <v>79</v>
       </c>
-      <c r="G79" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="58">
-        <v>1</v>
-      </c>
-      <c r="I79" s="58">
+      <c r="G79" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="57">
+        <v>1</v>
+      </c>
+      <c r="I79" s="57">
         <v>946656000</v>
       </c>
-      <c r="J79" s="58">
+      <c r="J79" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="58">
+      <c r="K79" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="58" customFormat="1" spans="1:11">
-      <c r="A80" s="58">
+    <row r="80" spans="1:11" s="57" customFormat="1">
+      <c r="A80" s="57">
         <v>80</v>
       </c>
-      <c r="B80" s="58">
-        <v>1</v>
-      </c>
-      <c r="C80" s="72" t="s">
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="57">
         <v>80</v>
       </c>
-      <c r="G80" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="58">
-        <v>1</v>
-      </c>
-      <c r="I80" s="58">
+      <c r="G80" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
+      <c r="I80" s="57">
         <v>946656000</v>
       </c>
-      <c r="J80" s="58">
+      <c r="J80" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="81" s="13" customFormat="1" spans="1:11">
+    <row r="81" spans="1:13" s="13" customFormat="1">
       <c r="A81" s="13">
         <v>81</v>
       </c>
@@ -6235,20 +5735,20 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" s="13" customFormat="1" spans="1:13">
+    <row r="82" spans="1:13" s="13" customFormat="1">
       <c r="A82" s="18">
         <v>82</v>
       </c>
       <c r="B82" s="18">
         <v>0</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="73" t="s">
+      <c r="E82" s="72" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="18">
@@ -6272,17 +5772,17 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" s="13" customFormat="1" spans="1:13">
+    <row r="83" spans="1:13" s="13" customFormat="1">
       <c r="A83" s="18">
         <v>83</v>
       </c>
       <c r="B83" s="18">
         <v>0</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -6309,17 +5809,17 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" s="13" customFormat="1" spans="1:13">
+    <row r="84" spans="1:13" s="13" customFormat="1">
       <c r="A84" s="18">
         <v>84</v>
       </c>
       <c r="B84" s="18">
         <v>0</v>
       </c>
-      <c r="C84" s="73" t="s">
+      <c r="C84" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="18" t="s">
@@ -6346,7 +5846,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" s="13" customFormat="1" spans="1:11">
+    <row r="85" spans="1:13" s="13" customFormat="1">
       <c r="A85" s="13">
         <v>85</v>
       </c>
@@ -6381,7 +5881,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:13">
       <c r="A86" s="13">
         <v>86</v>
       </c>
@@ -6416,7 +5916,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:13">
       <c r="A87" s="13">
         <v>87</v>
       </c>
@@ -6451,7 +5951,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:13">
       <c r="A88" s="13">
         <v>88</v>
       </c>
@@ -6486,7 +5986,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:13">
       <c r="A89" s="12">
         <v>89</v>
       </c>
@@ -6521,108 +6021,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="58" customFormat="1" spans="1:11">
-      <c r="A90" s="58">
+    <row r="90" spans="1:13" s="57" customFormat="1">
+      <c r="A90" s="57">
         <v>90</v>
       </c>
-      <c r="B90" s="58">
-        <v>1</v>
-      </c>
-      <c r="C90" s="72" t="s">
+      <c r="B90" s="57">
+        <v>1</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="57">
         <v>90</v>
       </c>
-      <c r="G90" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="58">
-        <v>1</v>
-      </c>
-      <c r="I90" s="58">
+      <c r="G90" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="57">
+        <v>1</v>
+      </c>
+      <c r="I90" s="57">
         <v>946656000</v>
       </c>
-      <c r="J90" s="58">
+      <c r="J90" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="58">
+      <c r="K90" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="58" customFormat="1" spans="1:11">
-      <c r="A91" s="58">
+    <row r="91" spans="1:13" s="57" customFormat="1">
+      <c r="A91" s="57">
         <v>91</v>
       </c>
-      <c r="B91" s="58">
-        <v>1</v>
-      </c>
-      <c r="C91" s="72" t="s">
+      <c r="B91" s="57">
+        <v>1</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="58">
+      <c r="F91" s="57">
         <v>91</v>
       </c>
-      <c r="G91" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="58">
-        <v>1</v>
-      </c>
-      <c r="I91" s="58">
+      <c r="G91" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="57">
+        <v>1</v>
+      </c>
+      <c r="I91" s="57">
         <v>946656000</v>
       </c>
-      <c r="J91" s="58">
+      <c r="J91" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="58">
+      <c r="K91" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="58" customFormat="1" spans="1:11">
-      <c r="A92" s="58">
+    <row r="92" spans="1:13" s="57" customFormat="1">
+      <c r="A92" s="57">
         <v>92</v>
       </c>
-      <c r="B92" s="58">
-        <v>1</v>
-      </c>
-      <c r="C92" s="72" t="s">
+      <c r="B92" s="57">
+        <v>1</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="57">
         <v>92</v>
       </c>
-      <c r="G92" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="58">
-        <v>1</v>
-      </c>
-      <c r="I92" s="58">
+      <c r="G92" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="57">
+        <v>1</v>
+      </c>
+      <c r="I92" s="57">
         <v>946656000</v>
       </c>
-      <c r="J92" s="58">
+      <c r="J92" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="58">
+      <c r="K92" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6654,13 +6154,13 @@
       <c r="I93" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="58">
+      <c r="J93" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="58">
+      <c r="K93" s="57">
         <v>-1</v>
       </c>
-      <c r="L93" s="75">
+      <c r="L93" s="74">
         <v>1</v>
       </c>
       <c r="M93" s="38" t="s">
@@ -6695,16 +6195,16 @@
       <c r="I94" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="58">
+      <c r="J94" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="57">
         <v>-1</v>
       </c>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="12">
         <v>95</v>
       </c>
@@ -6742,48 +6242,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="62" customFormat="1" spans="1:13">
-      <c r="A96" s="62">
+    <row r="96" spans="1:13" s="61" customFormat="1">
+      <c r="A96" s="61">
         <v>96</v>
       </c>
-      <c r="B96" s="62">
-        <v>1</v>
-      </c>
-      <c r="C96" s="74" t="s">
+      <c r="B96" s="61">
+        <v>1</v>
+      </c>
+      <c r="C96" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="74" t="s">
+      <c r="E96" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="62">
+      <c r="F96" s="61">
         <v>96</v>
       </c>
-      <c r="G96" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="62">
+      <c r="G96" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="61">
         <v>7</v>
       </c>
-      <c r="I96" s="62">
+      <c r="I96" s="61">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="62">
+      <c r="J96" s="61">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="62">
+      <c r="K96" s="61">
         <v>-1</v>
       </c>
-      <c r="L96" s="62">
-        <v>1</v>
-      </c>
-      <c r="M96" s="74" t="s">
+      <c r="L96" s="61">
+        <v>1</v>
+      </c>
+      <c r="M96" s="73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="12">
         <v>97</v>
       </c>
@@ -6802,7 +6302,7 @@
       <c r="F97" s="12">
         <v>97</v>
       </c>
-      <c r="G97" s="62" t="b">
+      <c r="G97" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="12">
@@ -6821,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="12">
         <v>98</v>
       </c>
@@ -6840,7 +6340,7 @@
       <c r="F98" s="12">
         <v>98</v>
       </c>
-      <c r="G98" s="62" t="b">
+      <c r="G98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="12">
@@ -6859,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="12">
         <v>99</v>
       </c>
@@ -6897,7 +6397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="12">
         <v>100</v>
       </c>
@@ -6935,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="38" customFormat="1" spans="1:13">
+    <row r="101" spans="1:13" s="38" customFormat="1">
       <c r="A101" s="38">
         <v>30001</v>
       </c>
@@ -6976,7 +6476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" s="38" customFormat="1" spans="1:12">
+    <row r="102" spans="1:13" s="38" customFormat="1">
       <c r="A102" s="38">
         <v>30002</v>
       </c>
@@ -7014,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" s="38" customFormat="1" spans="1:12">
+    <row r="103" spans="1:13" s="38" customFormat="1">
       <c r="A103" s="38">
         <v>30003</v>
       </c>
@@ -7052,7 +6552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" s="18" customFormat="1" spans="1:12">
+    <row r="104" spans="1:13" s="18" customFormat="1">
       <c r="A104" s="18">
         <v>30004</v>
       </c>
@@ -7090,7 +6590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" s="18" customFormat="1" spans="1:12">
+    <row r="105" spans="1:13" s="18" customFormat="1">
       <c r="A105" s="18">
         <v>30005</v>
       </c>
@@ -7128,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" s="18" customFormat="1" spans="1:12">
+    <row r="106" spans="1:13" s="18" customFormat="1">
       <c r="A106" s="18">
         <v>30006</v>
       </c>
@@ -7166,7 +6666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" s="18" customFormat="1" spans="1:12">
+    <row r="107" spans="1:13" s="18" customFormat="1">
       <c r="A107" s="18">
         <v>30007</v>
       </c>
@@ -7204,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="18" customFormat="1" spans="1:12">
+    <row r="108" spans="1:13" s="18" customFormat="1">
       <c r="A108" s="18">
         <v>30008</v>
       </c>
@@ -7242,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" s="18" customFormat="1" spans="1:12">
+    <row r="109" spans="1:13" s="18" customFormat="1">
       <c r="A109" s="18">
         <v>30009</v>
       </c>
@@ -7280,7 +6780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" s="18" customFormat="1" spans="1:12">
+    <row r="110" spans="1:13" s="18" customFormat="1">
       <c r="A110" s="18">
         <v>30010</v>
       </c>
@@ -7318,7 +6818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" s="18" customFormat="1" spans="1:12">
+    <row r="111" spans="1:13" s="18" customFormat="1">
       <c r="A111" s="18">
         <v>30011</v>
       </c>
@@ -7356,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" s="18" customFormat="1" spans="1:12">
+    <row r="112" spans="1:13" s="18" customFormat="1">
       <c r="A112" s="18">
         <v>30012</v>
       </c>
@@ -7394,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" s="18" customFormat="1" spans="1:12">
+    <row r="113" spans="1:12" s="18" customFormat="1">
       <c r="A113" s="18">
         <v>30013</v>
       </c>
@@ -7432,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" s="18" customFormat="1" spans="1:12">
+    <row r="114" spans="1:12" s="18" customFormat="1">
       <c r="A114" s="18">
         <v>30014</v>
       </c>
@@ -7470,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" s="18" customFormat="1" spans="1:12">
+    <row r="115" spans="1:12" s="18" customFormat="1">
       <c r="A115" s="18">
         <v>30015</v>
       </c>
@@ -7508,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" s="18" customFormat="1" spans="1:12">
+    <row r="116" spans="1:12" s="18" customFormat="1">
       <c r="A116" s="18">
         <v>30016</v>
       </c>
@@ -7546,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" s="18" customFormat="1" spans="1:12">
+    <row r="117" spans="1:12" s="18" customFormat="1">
       <c r="A117" s="18">
         <v>30017</v>
       </c>
@@ -7584,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" s="18" customFormat="1" spans="1:12">
+    <row r="118" spans="1:12" s="18" customFormat="1">
       <c r="A118" s="18">
         <v>30018</v>
       </c>
@@ -7623,20 +7123,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
@@ -7651,7 +7150,7 @@
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>197</v>
       </c>
@@ -7682,9 +7181,9 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -7700,18 +7199,18 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="50"/>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="76" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -7727,18 +7226,18 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="76" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -7754,18 +7253,18 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -7781,18 +7280,18 @@
       <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>212</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="76" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -7812,15 +7311,15 @@
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7846,7 +7345,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7872,7 +7371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -7899,7 +7398,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7925,7 +7424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7951,7 +7450,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -7977,7 +7476,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8003,7 +7502,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8029,7 +7528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -8055,7 +7554,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8601,7 +8100,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" spans="1:9">
+    <row r="37" spans="1:9" ht="12.95" customHeight="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -8627,7 +8126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" spans="1:9">
+    <row r="38" spans="1:9" ht="12.95" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8679,7 +8178,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" spans="1:9">
+    <row r="40" spans="1:9" ht="12.95" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8705,7 +8204,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" spans="1:9">
+    <row r="41" spans="1:9" ht="12.95" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8731,7 +8230,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" ht="12.95" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -8757,7 +8256,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" spans="1:9">
+    <row r="43" spans="1:9" ht="12.95" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8783,7 +8282,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" spans="1:9">
+    <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8809,7 +8308,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" spans="1:9">
+    <row r="45" spans="1:9" ht="12.95" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8835,7 +8334,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" spans="1:9">
+    <row r="46" spans="1:9" ht="12.95" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8861,7 +8360,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" spans="1:9">
+    <row r="47" spans="1:9" ht="12.95" customHeight="1">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -8887,7 +8386,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" spans="1:9">
+    <row r="48" spans="1:9" ht="12.95" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8913,7 +8412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" spans="1:9">
+    <row r="49" spans="1:9" ht="12.95" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8939,7 +8438,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" spans="1:9">
+    <row r="50" spans="1:9" ht="12.95" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8981,10 +8480,10 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="53"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="48" t="s">
         <v>223</v>
       </c>
@@ -9240,7 +8739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -9400,10 +8899,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="55">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="56"/>
+      <c r="G68" s="55"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9437,7 +8936,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" s="40" customFormat="1" spans="1:9">
+    <row r="70" spans="1:9" s="40" customFormat="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -9464,7 +8963,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" s="40" customFormat="1" spans="1:9">
+    <row r="71" spans="1:9" s="40" customFormat="1">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -9484,14 +8983,14 @@
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="57">
+      <c r="H71" s="56">
         <v>88</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" s="40" customFormat="1" spans="1:9">
+    <row r="72" spans="1:9" s="40" customFormat="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -9511,14 +9010,14 @@
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="57">
+      <c r="H72" s="56">
         <v>89</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" s="40" customFormat="1" spans="1:9">
+    <row r="73" spans="1:9" s="40" customFormat="1">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -9538,14 +9037,14 @@
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="57">
+      <c r="H73" s="56">
         <v>90</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" s="40" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="40" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -9565,14 +9064,14 @@
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="57">
+      <c r="H74" s="56">
         <v>91</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" s="40" customFormat="1" spans="1:9">
+    <row r="75" spans="1:9" s="40" customFormat="1">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -9592,10 +9091,10 @@
         <v>10</v>
       </c>
       <c r="G75" s="14"/>
-      <c r="H75" s="57"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" s="40" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="40" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -9615,10 +9114,10 @@
         <v>10</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="57"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" s="40" customFormat="1" spans="1:9">
+    <row r="77" spans="1:9" s="40" customFormat="1">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -9640,14 +9139,14 @@
       <c r="G77" s="14">
         <v>500000000</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H77" s="56">
         <v>92</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" s="40" customFormat="1" spans="1:9">
+    <row r="78" spans="1:9" s="40" customFormat="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -9669,18 +9168,18 @@
       <c r="G78" s="14">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="56">
         <v>93</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="58">
+    <row r="79" spans="1:9" s="3" customFormat="1">
+      <c r="A79" s="57">
         <v>78</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B79" s="57">
         <v>78</v>
       </c>
       <c r="C79" s="41"/>
@@ -9692,18 +9191,18 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="59">
+      <c r="H79" s="58">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="58">
+    <row r="80" spans="1:9" s="3" customFormat="1">
+      <c r="A80" s="57">
         <v>79</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="57">
         <v>79</v>
       </c>
       <c r="C80" s="41"/>
@@ -9715,18 +9214,18 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="59">
+      <c r="H80" s="58">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="58">
+    <row r="81" spans="1:10" s="3" customFormat="1">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="41"/>
@@ -9738,14 +9237,14 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="59">
+      <c r="H81" s="58">
         <v>96</v>
       </c>
       <c r="I81" s="41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="32">
         <v>81</v>
       </c>
@@ -9767,14 +9266,14 @@
       <c r="G82" s="32">
         <v>500000000</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="59">
         <v>97</v>
       </c>
       <c r="I82" s="44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -9794,14 +9293,14 @@
       <c r="G83" s="20">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="61">
+      <c r="H83" s="60">
         <v>98</v>
       </c>
       <c r="I83" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" s="40" customFormat="1" spans="1:9">
+    <row r="84" spans="1:10" s="40" customFormat="1">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -9821,14 +9320,14 @@
       <c r="G84" s="20">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="61">
+      <c r="H84" s="60">
         <v>99</v>
       </c>
       <c r="I84" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" s="40" customFormat="1" spans="1:9">
+    <row r="85" spans="1:10" s="40" customFormat="1">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -9848,7 +9347,7 @@
       <c r="G85" s="20">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="60">
         <v>100</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -9881,7 +9380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -9904,7 +9403,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -9927,7 +9426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -9950,7 +9449,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -9973,7 +9472,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" spans="1:9">
+    <row r="91" spans="1:10" s="3" customFormat="1">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -9989,14 +9488,14 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="59">
+      <c r="H91" s="58">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="1:9">
+    <row r="92" spans="1:10" s="3" customFormat="1">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -10012,14 +9511,14 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="59">
+      <c r="H92" s="58">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" spans="1:9">
+    <row r="93" spans="1:10" s="3" customFormat="1">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -10035,7 +9534,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="59">
+      <c r="H93" s="58">
         <v>109</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10065,7 +9564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10085,7 +9584,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -10109,25 +9608,25 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="62">
+      <c r="B97" s="61">
         <v>96</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="64" t="s">
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="65" t="s">
+      <c r="G97" s="62"/>
+      <c r="H97" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="I97" s="63" t="s">
         <v>209</v>
       </c>
       <c r="J97" s="45"/>
     </row>
-    <row r="98" ht="71.25" spans="1:9">
+    <row r="98" spans="1:10" ht="71.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -10137,17 +9636,17 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="H98" s="66" t="s">
+      <c r="H98" s="65" t="s">
         <v>249</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10167,7 +9666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10187,7 +9686,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10207,7 +9706,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" s="26" customFormat="1" spans="1:9">
+    <row r="102" spans="1:10" s="26" customFormat="1">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -10217,18 +9716,18 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
-      <c r="F102" s="67" t="s">
+      <c r="F102" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="67"/>
-      <c r="H102" s="60" t="s">
+      <c r="G102" s="66"/>
+      <c r="H102" s="59" t="s">
         <v>256</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="103" s="26" customFormat="1" spans="1:9">
+    <row r="103" spans="1:10" s="26" customFormat="1">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -10238,18 +9737,18 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
-      <c r="F103" s="67" t="s">
+      <c r="F103" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G103" s="67"/>
-      <c r="H103" s="60" t="s">
+      <c r="G103" s="66"/>
+      <c r="H103" s="59" t="s">
         <v>257</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="104" s="26" customFormat="1" spans="1:9">
+    <row r="104" spans="1:10" s="26" customFormat="1">
       <c r="A104" s="38">
         <v>103</v>
       </c>
@@ -10259,18 +9758,18 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G104" s="67"/>
-      <c r="H104" s="60" t="s">
+      <c r="G104" s="66"/>
+      <c r="H104" s="59" t="s">
         <v>258</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="47" customFormat="1" spans="1:10">
+    <row r="105" spans="1:10" s="47" customFormat="1">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -10286,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="61" t="s">
+      <c r="H105" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I105" s="20" t="s">
@@ -10296,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" s="47" customFormat="1" spans="1:10">
+    <row r="106" spans="1:10" s="47" customFormat="1">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -10312,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="61" t="s">
+      <c r="H106" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I106" s="20" t="s">
@@ -10322,7 +9821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" s="47" customFormat="1" spans="1:10">
+    <row r="107" spans="1:10" s="47" customFormat="1">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -10338,7 +9837,7 @@
         <v>50000</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="61" t="s">
+      <c r="H107" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I107" s="20" t="s">
@@ -10348,7 +9847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" s="47" customFormat="1" spans="1:10">
+    <row r="108" spans="1:10" s="47" customFormat="1">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -10364,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I108" s="20" t="s">
@@ -10374,7 +9873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" s="47" customFormat="1" spans="1:10">
+    <row r="109" spans="1:10" s="47" customFormat="1">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -10390,7 +9889,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="61" t="s">
+      <c r="H109" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I109" s="20" t="s">
@@ -10400,7 +9899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" s="47" customFormat="1" spans="1:10">
+    <row r="110" spans="1:10" s="47" customFormat="1">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -10416,7 +9915,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="61" t="s">
+      <c r="H110" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I110" s="20" t="s">
@@ -10426,7 +9925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" s="47" customFormat="1" spans="1:10">
+    <row r="111" spans="1:10" s="47" customFormat="1">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -10442,7 +9941,7 @@
         <v>600</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="61" t="s">
+      <c r="H111" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I111" s="20" t="s">
@@ -10452,7 +9951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" s="47" customFormat="1" spans="1:10">
+    <row r="112" spans="1:10" s="47" customFormat="1">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -10468,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="20"/>
-      <c r="H112" s="61" t="s">
+      <c r="H112" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I112" s="20" t="s">
@@ -10478,7 +9977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" s="47" customFormat="1" spans="1:10">
+    <row r="113" spans="1:10" s="47" customFormat="1">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -10494,7 +9993,7 @@
         <v>3</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="61" t="s">
+      <c r="H113" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I113" s="20" t="s">
@@ -10504,7 +10003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" s="47" customFormat="1" spans="1:10">
+    <row r="114" spans="1:10" s="47" customFormat="1">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -10520,7 +10019,7 @@
         <v>1000000</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="61" t="s">
+      <c r="H114" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I114" s="20" t="s">
@@ -10530,7 +10029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" s="47" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10" s="47" customFormat="1">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -10546,7 +10045,7 @@
         <v>50</v>
       </c>
       <c r="G115" s="20"/>
-      <c r="H115" s="61" t="s">
+      <c r="H115" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="20" t="s">
@@ -10556,7 +10055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" s="47" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10" s="47" customFormat="1">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -10572,7 +10071,7 @@
         <v>100</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I116" s="20" t="s">
@@ -10582,7 +10081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" s="47" customFormat="1" spans="1:10">
+    <row r="117" spans="1:10" s="47" customFormat="1">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -10598,7 +10097,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="20"/>
-      <c r="H117" s="61" t="s">
+      <c r="H117" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I117" s="20" t="s">
@@ -10608,7 +10107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" s="47" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10" s="47" customFormat="1">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -10624,7 +10123,7 @@
         <v>5400</v>
       </c>
       <c r="G118" s="20"/>
-      <c r="H118" s="61" t="s">
+      <c r="H118" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I118" s="20" t="s">
@@ -10634,7 +10133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" s="47" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10" s="47" customFormat="1">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -10650,7 +10149,7 @@
         <v>4800</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="61" t="s">
+      <c r="H119" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I119" s="20" t="s">
@@ -10661,20 +10160,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -10688,7 +10186,7 @@
     <col min="8" max="9" width="32.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
         <v>262</v>
       </c>
@@ -10709,7 +10207,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" s="40" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="40" customFormat="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -10726,7 +10224,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" s="40" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="40" customFormat="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -10743,7 +10241,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" s="40" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="40" customFormat="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -10760,7 +10258,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="40" customFormat="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -10777,7 +10275,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="40" customFormat="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -10794,7 +10292,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" s="40" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="40" customFormat="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -10811,7 +10309,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" s="40" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="40" customFormat="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -10828,7 +10326,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="40" customFormat="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -10845,7 +10343,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" s="40" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="40" customFormat="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -10862,7 +10360,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" s="40" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="40" customFormat="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -10879,7 +10377,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" s="40" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="40" customFormat="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -10896,7 +10394,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" s="40" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="40" customFormat="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -10913,7 +10411,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" s="40" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="40" customFormat="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -10930,7 +10428,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="40" customFormat="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -10947,7 +10445,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="40" customFormat="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -10964,7 +10462,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="40" customFormat="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -10981,7 +10479,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="40" customFormat="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -10998,7 +10496,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" s="40" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="40" customFormat="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -11015,7 +10513,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" s="40" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="40" customFormat="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -11032,7 +10530,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" s="40" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="40" customFormat="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -11049,7 +10547,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" s="40" customFormat="1" spans="1:9">
+    <row r="22" spans="1:9" s="40" customFormat="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -11066,7 +10564,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" s="40" customFormat="1" spans="1:9">
+    <row r="23" spans="1:9" s="40" customFormat="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -11083,7 +10581,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" s="40" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9" s="40" customFormat="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -11100,7 +10598,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" s="40" customFormat="1" spans="1:9">
+    <row r="25" spans="1:9" s="40" customFormat="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -11117,7 +10615,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" s="40" customFormat="1" spans="1:9">
+    <row r="26" spans="1:9" s="40" customFormat="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -11134,7 +10632,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" s="40" customFormat="1" spans="1:9">
+    <row r="27" spans="1:9" s="40" customFormat="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -11151,7 +10649,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" s="40" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9" s="40" customFormat="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -11168,7 +10666,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" s="40" customFormat="1" spans="1:9">
+    <row r="29" spans="1:9" s="40" customFormat="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -11185,7 +10683,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" s="40" customFormat="1" spans="1:9">
+    <row r="30" spans="1:9" s="40" customFormat="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -11202,7 +10700,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" s="40" customFormat="1" spans="1:9">
+    <row r="31" spans="1:9" s="40" customFormat="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -11219,7 +10717,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" s="40" customFormat="1" spans="1:9">
+    <row r="32" spans="1:9" s="40" customFormat="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -11236,7 +10734,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" s="40" customFormat="1" spans="1:9">
+    <row r="33" spans="1:9" s="40" customFormat="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -11253,7 +10751,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" s="40" customFormat="1" spans="1:9">
+    <row r="34" spans="1:9" s="40" customFormat="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -11270,7 +10768,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" s="40" customFormat="1" spans="1:9">
+    <row r="35" spans="1:9" s="40" customFormat="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -11287,7 +10785,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" s="40" customFormat="1" spans="1:9">
+    <row r="36" spans="1:9" s="40" customFormat="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -11304,7 +10802,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" s="40" customFormat="1" spans="1:9">
+    <row r="37" spans="1:9" s="40" customFormat="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -11321,7 +10819,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" s="40" customFormat="1" spans="1:9">
+    <row r="38" spans="1:9" s="40" customFormat="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -11338,7 +10836,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" s="40" customFormat="1" spans="1:9">
+    <row r="39" spans="1:9" s="40" customFormat="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -11355,7 +10853,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" s="40" customFormat="1" spans="1:9">
+    <row r="40" spans="1:9" s="40" customFormat="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -11372,7 +10870,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" s="40" customFormat="1" spans="1:9">
+    <row r="41" spans="1:9" s="40" customFormat="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -11389,7 +10887,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" s="40" customFormat="1" spans="1:9">
+    <row r="42" spans="1:9" s="40" customFormat="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -11406,7 +10904,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" s="40" customFormat="1" spans="1:9">
+    <row r="43" spans="1:9" s="40" customFormat="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -11423,7 +10921,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" s="40" customFormat="1" spans="1:9">
+    <row r="44" spans="1:9" s="40" customFormat="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -11440,7 +10938,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" s="40" customFormat="1" spans="1:9">
+    <row r="45" spans="1:9" s="40" customFormat="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -11457,7 +10955,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" s="40" customFormat="1" spans="1:9">
+    <row r="46" spans="1:9" s="40" customFormat="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -11474,7 +10972,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" s="40" customFormat="1" spans="1:9">
+    <row r="47" spans="1:9" s="40" customFormat="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -11491,7 +10989,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" s="40" customFormat="1" spans="1:9">
+    <row r="48" spans="1:9" s="40" customFormat="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -11508,7 +11006,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" s="40" customFormat="1" spans="1:9">
+    <row r="49" spans="1:9" s="40" customFormat="1">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -11525,7 +11023,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" s="40" customFormat="1" spans="1:9">
+    <row r="50" spans="1:9" s="40" customFormat="1">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -11542,7 +11040,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" s="40" customFormat="1" spans="1:9">
+    <row r="51" spans="1:9" s="40" customFormat="1">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -11559,7 +11057,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" s="40" customFormat="1" spans="1:9">
+    <row r="52" spans="1:9" s="40" customFormat="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -11576,7 +11074,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" s="40" customFormat="1" spans="1:9">
+    <row r="53" spans="1:9" s="40" customFormat="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -11593,7 +11091,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" s="40" customFormat="1" spans="1:9">
+    <row r="54" spans="1:9" s="40" customFormat="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -11610,7 +11108,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" s="40" customFormat="1" spans="1:9">
+    <row r="55" spans="1:9" s="40" customFormat="1">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -11627,7 +11125,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" s="40" customFormat="1" spans="1:9">
+    <row r="56" spans="1:9" s="40" customFormat="1">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -11644,7 +11142,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" s="40" customFormat="1" spans="1:9">
+    <row r="57" spans="1:9" s="40" customFormat="1">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -11661,7 +11159,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" s="40" customFormat="1" spans="1:9">
+    <row r="58" spans="1:9" s="40" customFormat="1">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -11678,7 +11176,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" s="40" customFormat="1" spans="1:9">
+    <row r="59" spans="1:9" s="40" customFormat="1">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -11695,7 +11193,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" s="40" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="40" customFormat="1">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -11712,7 +11210,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" s="40" customFormat="1" spans="1:9">
+    <row r="61" spans="1:9" s="40" customFormat="1">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -11729,7 +11227,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" s="40" customFormat="1" spans="1:9">
+    <row r="62" spans="1:9" s="40" customFormat="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -11746,7 +11244,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" s="40" customFormat="1" spans="1:9">
+    <row r="63" spans="1:9" s="40" customFormat="1">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -11763,7 +11261,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" s="40" customFormat="1" spans="1:9">
+    <row r="64" spans="1:9" s="40" customFormat="1">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -11780,7 +11278,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" s="40" customFormat="1" spans="1:9">
+    <row r="65" spans="1:9" s="40" customFormat="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -11797,7 +11295,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" s="40" customFormat="1" spans="1:9">
+    <row r="66" spans="1:9" s="40" customFormat="1">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -11814,7 +11312,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" s="40" customFormat="1" spans="1:9">
+    <row r="67" spans="1:9" s="40" customFormat="1">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -11831,7 +11329,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" s="40" customFormat="1" spans="1:9">
+    <row r="68" spans="1:9" s="40" customFormat="1">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -11848,7 +11346,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" s="40" customFormat="1" spans="1:9">
+    <row r="69" spans="1:9" s="40" customFormat="1">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -11865,7 +11363,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" s="40" customFormat="1" spans="1:9">
+    <row r="70" spans="1:9" s="40" customFormat="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -11882,7 +11380,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" s="40" customFormat="1" spans="1:9">
+    <row r="71" spans="1:9" s="40" customFormat="1">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -11899,7 +11397,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" s="40" customFormat="1" spans="1:9">
+    <row r="72" spans="1:9" s="40" customFormat="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -11916,7 +11414,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" s="40" customFormat="1" spans="1:9">
+    <row r="73" spans="1:9" s="40" customFormat="1">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -11933,7 +11431,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" s="40" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="40" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -11950,7 +11448,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" s="40" customFormat="1" spans="1:9">
+    <row r="75" spans="1:9" s="40" customFormat="1">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -11967,7 +11465,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" s="40" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="40" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -11984,7 +11482,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" s="40" customFormat="1" spans="1:9">
+    <row r="77" spans="1:9" s="40" customFormat="1">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -12001,7 +11499,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" s="40" customFormat="1" spans="1:9">
+    <row r="78" spans="1:9" s="40" customFormat="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -12018,7 +11516,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" s="40" customFormat="1" spans="1:9">
+    <row r="79" spans="1:9" s="40" customFormat="1">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -12035,7 +11533,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" s="40" customFormat="1" spans="1:9">
+    <row r="80" spans="1:9" s="40" customFormat="1">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -12052,7 +11550,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" s="40" customFormat="1" spans="1:9">
+    <row r="81" spans="1:9" s="40" customFormat="1">
       <c r="A81" s="30">
         <v>80</v>
       </c>
@@ -12069,7 +11567,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" s="40" customFormat="1" spans="1:9">
+    <row r="82" spans="1:9" s="40" customFormat="1">
       <c r="A82" s="30">
         <v>81</v>
       </c>
@@ -12086,7 +11584,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" s="40" customFormat="1" spans="1:9">
+    <row r="83" spans="1:9" s="40" customFormat="1">
       <c r="A83" s="30">
         <v>82</v>
       </c>
@@ -12103,7 +11601,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" s="40" customFormat="1" spans="1:9">
+    <row r="84" spans="1:9" s="40" customFormat="1">
       <c r="A84" s="30">
         <v>83</v>
       </c>
@@ -12120,7 +11618,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" s="40" customFormat="1" spans="1:9">
+    <row r="85" spans="1:9" s="40" customFormat="1">
       <c r="A85" s="30">
         <v>84</v>
       </c>
@@ -12137,7 +11635,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" s="40" customFormat="1" spans="1:9">
+    <row r="86" spans="1:9" s="40" customFormat="1">
       <c r="A86" s="30">
         <v>85</v>
       </c>
@@ -12154,7 +11652,7 @@
       <c r="H86" s="43"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" s="40" customFormat="1" spans="1:9">
+    <row r="87" spans="1:9" s="40" customFormat="1">
       <c r="A87" s="30">
         <v>86</v>
       </c>
@@ -12171,7 +11669,7 @@
       <c r="H87" s="43"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" s="40" customFormat="1" spans="1:9">
+    <row r="88" spans="1:9" s="40" customFormat="1">
       <c r="A88" s="30">
         <v>87</v>
       </c>
@@ -12188,7 +11686,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" s="40" customFormat="1" spans="1:9">
+    <row r="89" spans="1:9" s="40" customFormat="1">
       <c r="A89" s="30">
         <v>88</v>
       </c>
@@ -12205,7 +11703,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" s="40" customFormat="1" spans="1:9">
+    <row r="90" spans="1:9" s="40" customFormat="1">
       <c r="A90" s="30">
         <v>89</v>
       </c>
@@ -12222,7 +11720,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -12236,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -12250,7 +11748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -12264,7 +11762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -12278,7 +11776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -12292,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="40" customFormat="1" spans="1:9">
+    <row r="96" spans="1:9" s="40" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -12309,7 +11807,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" s="40" customFormat="1" spans="1:9">
+    <row r="97" spans="1:9" s="40" customFormat="1">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -12326,7 +11824,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" s="40" customFormat="1" spans="1:9">
+    <row r="98" spans="1:9" s="40" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -12343,7 +11841,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -12357,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -12371,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -12385,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -12399,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -12413,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -12427,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -12444,7 +11942,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -12458,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -12472,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -12486,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -12500,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -12514,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -12531,7 +12029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -12545,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -12559,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:6">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -12573,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -12590,7 +12088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -12604,7 +12102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -12618,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -12632,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -12659,7 +12157,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="79" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12676,7 +12174,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="45"/>
+      <c r="F121" s="79"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -12691,7 +12189,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="45"/>
+      <c r="F122" s="79"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -12706,7 +12204,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="45"/>
+      <c r="F123" s="79"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -12721,7 +12219,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="45"/>
+      <c r="F124" s="79"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -12736,7 +12234,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="45"/>
+      <c r="F125" s="79"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -12751,7 +12249,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="45"/>
+      <c r="F126" s="79"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -12766,7 +12264,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="45"/>
+      <c r="F127" s="79"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -12781,7 +12279,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="45"/>
+      <c r="F128" s="79"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -12796,7 +12294,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="45"/>
+      <c r="F129" s="79"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -12811,7 +12309,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="45"/>
+      <c r="F130" s="79"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -12826,7 +12324,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="45"/>
+      <c r="F131" s="79"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -12841,7 +12339,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="45"/>
+      <c r="F132" s="79"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -12856,7 +12354,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="45"/>
+      <c r="F133" s="79"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -12871,7 +12369,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="45"/>
+      <c r="F134" s="79"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -12886,9 +12384,9 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="45"/>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135" s="79"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -12902,7 +12400,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:6">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -12916,7 +12414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:6">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -12930,7 +12428,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:6">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -12944,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:6">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -12958,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:6">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -12972,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:6">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -12986,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:6">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -13000,7 +12498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:6">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -13074,20 +12572,1346 @@
   <mergeCells count="1">
     <mergeCell ref="F120:F135"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="66.95" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>16</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>16</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="4">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>18</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>19</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>20</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>20</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="4">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>21</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>23</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>23</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>24</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>24</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>24</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="4">
+        <v>74</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13">
+        <v>28</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>29</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13">
+        <v>30</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="11" customFormat="1">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16">
+        <v>31</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="16">
+        <v>2</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" s="11" customFormat="1">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16">
+        <v>32</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" s="16">
+        <v>2</v>
+      </c>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:6" s="11" customFormat="1">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16">
+        <v>32</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" s="16">
+        <v>2</v>
+      </c>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18">
+        <v>33</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="20">
+        <v>34</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="18">
+        <v>3</v>
+      </c>
+      <c r="E66" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="18">
+        <v>35</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" s="18">
+        <v>4</v>
+      </c>
+      <c r="E67" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.5">
+      <c r="A68" s="12">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>36</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>37</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="12">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="12">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>39</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>41</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>41</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>42</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
@@ -13105,7 +13929,7 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>305</v>
       </c>
@@ -13134,7 +13958,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -13154,7 +13978,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -13215,7 +14039,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -13235,7 +14059,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -13255,7 +14079,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -13272,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -13289,7 +14113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -13306,7 +14130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -13323,7 +14147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -13340,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -13357,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -13374,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -13391,7 +14215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -13408,7 +14232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -13425,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -13442,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -13459,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -13476,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -13493,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -13510,7 +14334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -13527,7 +14351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -13544,7 +14368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -13561,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -13578,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -13595,7 +14419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -13632,7 +14456,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -13649,7 +14473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -14106,7 +14930,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -14123,7 +14947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -14180,7 +15004,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -14197,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -14214,7 +15038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -14231,7 +15055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:7">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -14248,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -14265,7 +15089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -14282,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -14299,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -14316,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -14333,7 +15157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -14370,7 +15194,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -14387,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -14404,7 +15228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -14421,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -14438,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:7">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -14455,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -14472,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -14489,7 +15313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -14506,7 +15330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -14523,7 +15347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -14540,7 +15364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -14557,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -14574,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -14591,7 +15415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:7">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -14608,7 +15432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:7">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -14625,7 +15449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:7">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -14642,7 +15466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -14659,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -14676,7 +15500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:7">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -14693,7 +15517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:7">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -14710,7 +15534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:7">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -14727,7 +15551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="24" customFormat="1" spans="1:7">
+    <row r="90" spans="1:7" s="24" customFormat="1">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -14746,7 +15570,7 @@
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
     </row>
-    <row r="91" s="24" customFormat="1" spans="1:7">
+    <row r="91" spans="1:7" s="24" customFormat="1">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -14765,7 +15589,7 @@
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
     </row>
-    <row r="92" s="24" customFormat="1" spans="1:7">
+    <row r="92" spans="1:7" s="24" customFormat="1">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -14784,7 +15608,7 @@
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" s="24" customFormat="1" spans="1:7">
+    <row r="93" spans="1:7" s="24" customFormat="1">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -14803,7 +15627,7 @@
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" s="24" customFormat="1" spans="1:7">
+    <row r="94" spans="1:7" s="24" customFormat="1">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -14822,7 +15646,7 @@
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
     </row>
-    <row r="95" s="24" customFormat="1" spans="1:7">
+    <row r="95" spans="1:7" s="24" customFormat="1">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -14841,7 +15665,7 @@
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
     </row>
-    <row r="96" s="24" customFormat="1" spans="1:7">
+    <row r="96" spans="1:7" s="24" customFormat="1">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -14860,7 +15684,7 @@
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
     </row>
-    <row r="97" s="24" customFormat="1" spans="1:7">
+    <row r="97" spans="1:7" s="24" customFormat="1">
       <c r="A97" s="29">
         <v>96</v>
       </c>
@@ -14879,7 +15703,7 @@
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:7">
       <c r="A98" s="29">
         <v>97</v>
       </c>
@@ -14896,7 +15720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:7">
       <c r="A99" s="29">
         <v>98</v>
       </c>
@@ -14913,7 +15737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7">
       <c r="A100" s="29">
         <v>99</v>
       </c>
@@ -14930,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="29">
         <v>100</v>
       </c>
@@ -14947,7 +15771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="29">
         <v>101</v>
       </c>
@@ -14964,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:7">
       <c r="A103" s="29">
         <v>102</v>
       </c>
@@ -14981,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="29">
         <v>103</v>
       </c>
@@ -14998,7 +15822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="29">
         <v>104</v>
       </c>
@@ -15015,7 +15839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106" s="29">
         <v>105</v>
       </c>
@@ -15032,7 +15856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="29">
         <v>106</v>
       </c>
@@ -15049,7 +15873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="24" customFormat="1" spans="1:7">
+    <row r="108" spans="1:7" s="24" customFormat="1">
       <c r="A108" s="29">
         <v>107</v>
       </c>
@@ -15068,7 +15892,7 @@
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
     </row>
-    <row r="109" s="24" customFormat="1" spans="1:7">
+    <row r="109" spans="1:7" s="24" customFormat="1">
       <c r="A109" s="29">
         <v>108</v>
       </c>
@@ -15087,7 +15911,7 @@
       <c r="F109" s="30"/>
       <c r="G109" s="30"/>
     </row>
-    <row r="110" s="24" customFormat="1" spans="1:7">
+    <row r="110" spans="1:7" s="24" customFormat="1">
       <c r="A110" s="29">
         <v>109</v>
       </c>
@@ -15106,7 +15930,7 @@
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" s="24" customFormat="1" spans="1:7">
+    <row r="111" spans="1:7" s="24" customFormat="1">
       <c r="A111" s="29">
         <v>110</v>
       </c>
@@ -15125,7 +15949,7 @@
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" s="24" customFormat="1" spans="1:7">
+    <row r="112" spans="1:7" s="24" customFormat="1">
       <c r="A112" s="29">
         <v>111</v>
       </c>
@@ -15144,7 +15968,7 @@
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
     </row>
-    <row r="113" s="24" customFormat="1" spans="1:7">
+    <row r="113" spans="1:7" s="24" customFormat="1">
       <c r="A113" s="29">
         <v>112</v>
       </c>
@@ -15163,7 +15987,7 @@
       <c r="F113" s="30"/>
       <c r="G113" s="30"/>
     </row>
-    <row r="114" s="24" customFormat="1" spans="1:7">
+    <row r="114" spans="1:7" s="24" customFormat="1">
       <c r="A114" s="29">
         <v>113</v>
       </c>
@@ -15182,7 +16006,7 @@
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
     </row>
-    <row r="115" s="24" customFormat="1" spans="1:7">
+    <row r="115" spans="1:7" s="24" customFormat="1">
       <c r="A115" s="29">
         <v>114</v>
       </c>
@@ -15201,7 +16025,7 @@
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:7">
       <c r="A116" s="29">
         <v>115</v>
       </c>
@@ -15218,7 +16042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:7">
       <c r="A117" s="29">
         <v>116</v>
       </c>
@@ -15235,7 +16059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:7">
       <c r="A118" s="29">
         <v>117</v>
       </c>
@@ -15252,7 +16076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:7">
       <c r="A119" s="29">
         <v>118</v>
       </c>
@@ -15269,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:7">
       <c r="A120" s="29">
         <v>119</v>
       </c>
@@ -15286,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:7">
       <c r="A121" s="29">
         <v>120</v>
       </c>
@@ -15303,7 +16127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7">
       <c r="A122" s="29">
         <v>121</v>
       </c>
@@ -15320,7 +16144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:7">
       <c r="A123" s="29">
         <v>122</v>
       </c>
@@ -15337,7 +16161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:7">
       <c r="A124" s="29">
         <v>123</v>
       </c>
@@ -15354,7 +16178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:7">
       <c r="A125" s="29">
         <v>124</v>
       </c>
@@ -15371,7 +16195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7">
       <c r="A126" s="29">
         <v>125</v>
       </c>
@@ -15388,7 +16212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:7">
       <c r="A127" s="29">
         <v>126</v>
       </c>
@@ -15405,7 +16229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" s="25" customFormat="1" spans="1:7">
+    <row r="128" spans="1:7" s="25" customFormat="1">
       <c r="A128" s="29">
         <v>127</v>
       </c>
@@ -15424,7 +16248,7 @@
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
     </row>
-    <row r="129" s="25" customFormat="1" spans="1:7">
+    <row r="129" spans="1:7" s="25" customFormat="1">
       <c r="A129" s="29">
         <v>128</v>
       </c>
@@ -15443,7 +16267,7 @@
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
     </row>
-    <row r="130" s="25" customFormat="1" spans="1:7">
+    <row r="130" spans="1:7" s="25" customFormat="1">
       <c r="A130" s="29">
         <v>129</v>
       </c>
@@ -15462,7 +16286,7 @@
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
     </row>
-    <row r="131" s="25" customFormat="1" spans="1:7">
+    <row r="131" spans="1:7" s="25" customFormat="1">
       <c r="A131" s="29">
         <v>130</v>
       </c>
@@ -15481,7 +16305,7 @@
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
     </row>
-    <row r="132" s="25" customFormat="1" spans="1:7">
+    <row r="132" spans="1:7" s="25" customFormat="1">
       <c r="A132" s="29">
         <v>131</v>
       </c>
@@ -15500,7 +16324,7 @@
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
     </row>
-    <row r="133" s="25" customFormat="1" spans="1:7">
+    <row r="133" spans="1:7" s="25" customFormat="1">
       <c r="A133" s="29">
         <v>132</v>
       </c>
@@ -15519,7 +16343,7 @@
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
     </row>
-    <row r="134" s="25" customFormat="1" spans="1:7">
+    <row r="134" spans="1:7" s="25" customFormat="1">
       <c r="A134" s="29">
         <v>133</v>
       </c>
@@ -15538,7 +16362,7 @@
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
     </row>
-    <row r="135" s="25" customFormat="1" spans="1:7">
+    <row r="135" spans="1:7" s="25" customFormat="1">
       <c r="A135" s="29">
         <v>134</v>
       </c>
@@ -15557,7 +16381,7 @@
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -15574,7 +16398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -15591,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="12">
         <v>137</v>
       </c>
@@ -15608,7 +16432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="12">
         <v>138</v>
       </c>
@@ -15625,7 +16449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="12">
         <v>139</v>
       </c>
@@ -15642,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="12">
         <v>140</v>
       </c>
@@ -15659,7 +16483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -15676,7 +16500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="12">
         <v>142</v>
       </c>
@@ -15693,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="12">
         <v>143</v>
       </c>
@@ -15982,7 +16806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:7">
       <c r="A161" s="12">
         <v>160</v>
       </c>
@@ -15999,7 +16823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:7">
       <c r="A162" s="12">
         <v>161</v>
       </c>
@@ -16016,7 +16840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:7">
       <c r="A163" s="12">
         <v>162</v>
       </c>
@@ -16033,7 +16857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:7">
       <c r="A164" s="12">
         <v>163</v>
       </c>
@@ -16050,7 +16874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:7">
       <c r="A165" s="12">
         <v>164</v>
       </c>
@@ -16067,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:7">
       <c r="A166" s="12">
         <v>165</v>
       </c>
@@ -16084,7 +16908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:7">
       <c r="A167" s="12">
         <v>166</v>
       </c>
@@ -16101,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:7">
       <c r="A168" s="12">
         <v>167</v>
       </c>
@@ -16118,7 +16942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7">
       <c r="A169" s="12">
         <v>168</v>
       </c>
@@ -16135,7 +16959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:7">
       <c r="A170" s="12">
         <v>169</v>
       </c>
@@ -16152,7 +16976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:7">
       <c r="A171" s="12">
         <v>170</v>
       </c>
@@ -16169,7 +16993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:7">
       <c r="A172" s="12">
         <v>171</v>
       </c>
@@ -16186,7 +17010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:7">
       <c r="A173" s="12">
         <v>172</v>
       </c>
@@ -16203,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:7">
       <c r="A174" s="12">
         <v>173</v>
       </c>
@@ -16220,7 +17044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" s="26" customFormat="1" spans="1:7">
+    <row r="175" spans="1:7" s="26" customFormat="1">
       <c r="A175" s="38">
         <v>174</v>
       </c>
@@ -16239,7 +17063,7 @@
       <c r="F175" s="32"/>
       <c r="G175" s="32"/>
     </row>
-    <row r="176" s="26" customFormat="1" spans="1:7">
+    <row r="176" spans="1:7" s="26" customFormat="1">
       <c r="A176" s="38">
         <v>175</v>
       </c>
@@ -16258,7 +17082,7 @@
       <c r="F176" s="32"/>
       <c r="G176" s="32"/>
     </row>
-    <row r="177" s="26" customFormat="1" spans="1:7">
+    <row r="177" spans="1:7" s="26" customFormat="1">
       <c r="A177" s="38">
         <v>176</v>
       </c>
@@ -16277,7 +17101,7 @@
       <c r="F177" s="32"/>
       <c r="G177" s="32"/>
     </row>
-    <row r="178" s="26" customFormat="1" spans="1:7">
+    <row r="178" spans="1:7" s="26" customFormat="1">
       <c r="A178" s="38">
         <v>177</v>
       </c>
@@ -16296,7 +17120,7 @@
       <c r="F178" s="32"/>
       <c r="G178" s="32"/>
     </row>
-    <row r="179" s="26" customFormat="1" spans="1:7">
+    <row r="179" spans="1:7" s="26" customFormat="1">
       <c r="A179" s="38">
         <v>178</v>
       </c>
@@ -16315,7 +17139,7 @@
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
     </row>
-    <row r="180" s="26" customFormat="1" spans="1:7">
+    <row r="180" spans="1:7" s="26" customFormat="1">
       <c r="A180" s="38">
         <v>179</v>
       </c>
@@ -16334,7 +17158,7 @@
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
     </row>
-    <row r="181" s="26" customFormat="1" ht="16.5" spans="1:7">
+    <row r="181" spans="1:7" s="26" customFormat="1" ht="16.5">
       <c r="A181" s="38">
         <v>180</v>
       </c>
@@ -16353,7 +17177,7 @@
       <c r="F181" s="32"/>
       <c r="G181" s="32"/>
     </row>
-    <row r="182" s="26" customFormat="1" ht="16.5" spans="1:7">
+    <row r="182" spans="1:7" s="26" customFormat="1" ht="16.5">
       <c r="A182" s="38">
         <v>181</v>
       </c>
@@ -16372,7 +17196,7 @@
       <c r="F182" s="32"/>
       <c r="G182" s="32"/>
     </row>
-    <row r="183" s="26" customFormat="1" spans="1:7">
+    <row r="183" spans="1:7" s="26" customFormat="1">
       <c r="A183" s="38">
         <v>182</v>
       </c>
@@ -16391,7 +17215,7 @@
       <c r="F183" s="32"/>
       <c r="G183" s="32"/>
     </row>
-    <row r="184" s="26" customFormat="1" spans="1:7">
+    <row r="184" spans="1:7" s="26" customFormat="1">
       <c r="A184" s="38">
         <v>183</v>
       </c>
@@ -16410,7 +17234,7 @@
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:7">
       <c r="A185" s="38">
         <v>184</v>
       </c>
@@ -16427,7 +17251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:7">
       <c r="A186" s="38">
         <v>185</v>
       </c>
@@ -16444,7 +17268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:7">
       <c r="A187" s="38">
         <v>186</v>
       </c>
@@ -16461,7 +17285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:7">
       <c r="A188" s="38">
         <v>187</v>
       </c>
@@ -16478,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:7">
       <c r="A189" s="38">
         <v>188</v>
       </c>
@@ -16495,7 +17319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:7">
       <c r="A190" s="38">
         <v>189</v>
       </c>
@@ -16512,7 +17336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:7">
       <c r="A191" s="38">
         <v>190</v>
       </c>
@@ -16529,7 +17353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7">
       <c r="A192" s="38">
         <v>191</v>
       </c>
@@ -16802,1342 +17626,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F76"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="39" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="66.95" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>16</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" s="4">
-        <v>96</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>18</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4">
-        <v>19</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>19</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="12">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4">
-        <v>20</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D44" s="4">
-        <v>96</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="12">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4">
-        <v>21</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>21</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="12">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4">
-        <v>21</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4">
-        <v>22</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4">
-        <v>22</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4">
-        <v>23</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>23</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4">
-        <v>23</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="12">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4">
-        <v>24</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="12">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4">
-        <v>24</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="12">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4">
-        <v>24</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" s="4">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="12">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4">
-        <v>25</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="12">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="12">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4">
-        <v>27</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D58" s="4">
-        <v>74</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="12">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13">
-        <v>28</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="12">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4">
-        <v>29</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="12">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13">
-        <v>30</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:6">
-      <c r="A62" s="15">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16">
-        <v>31</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="E62" s="16">
-        <v>2</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" s="11" customFormat="1" spans="1:6">
-      <c r="A63" s="15">
-        <v>62</v>
-      </c>
-      <c r="B63" s="16">
-        <v>32</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E63" s="16">
-        <v>2</v>
-      </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" s="11" customFormat="1" spans="1:6">
-      <c r="A64" s="15">
-        <v>63</v>
-      </c>
-      <c r="B64" s="16">
-        <v>32</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" s="16">
-        <v>2</v>
-      </c>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="18">
-        <v>64</v>
-      </c>
-      <c r="B65" s="18">
-        <v>33</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" s="18">
-        <v>2</v>
-      </c>
-      <c r="E65" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="18">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20">
-        <v>34</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D66" s="18">
-        <v>3</v>
-      </c>
-      <c r="E66" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="18">
-        <v>66</v>
-      </c>
-      <c r="B67" s="18">
-        <v>35</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D67" s="18">
-        <v>4</v>
-      </c>
-      <c r="E67" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" ht="28.5" spans="1:5">
-      <c r="A68" s="12">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4">
-        <v>36</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="12">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>37</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="12">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>38</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="12">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4">
-        <v>39</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="12">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4">
-        <v>40</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E72" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="12">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4">
-        <v>40</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="12">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4">
-        <v>41</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>41</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4">
-        <v>42</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -18145,7 +17641,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
@@ -18232,14 +17728,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
@@ -18271,25 +17767,25 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="C2" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>421</v>
       </c>
@@ -18300,7 +17796,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>424</v>
       </c>
@@ -18311,7 +17807,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>214</v>
       </c>
@@ -18322,7 +17818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>215</v>
       </c>
@@ -18333,43 +17829,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+    <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="80" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="C10" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>221</v>
       </c>
@@ -18380,7 +17876,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>432</v>
       </c>
@@ -18391,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
@@ -18402,7 +17898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>436</v>
       </c>
@@ -18413,7 +17909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:3">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>219</v>
       </c>
@@ -18424,7 +17920,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>439</v>
       </c>
@@ -18435,7 +17931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>231</v>
       </c>
@@ -18446,7 +17942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>442</v>
       </c>
@@ -18472,19 +17968,21 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:3">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>267</v>
       </c>
@@ -18495,7 +17993,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>304</v>
       </c>
@@ -18506,7 +18004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>449</v>
       </c>
@@ -18539,7 +18037,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>269</v>
       </c>
@@ -18550,7 +18048,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>454</v>
       </c>
@@ -18561,7 +18059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>456</v>
       </c>
@@ -18594,7 +18092,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
         <v>461</v>
       </c>
@@ -18605,7 +18103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
         <v>463</v>
       </c>
@@ -18616,7 +18114,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:3">
+    <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>268</v>
       </c>
@@ -18627,7 +18125,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:3">
+    <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>298</v>
       </c>
@@ -18638,7 +18136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:3">
+    <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>467</v>
       </c>
@@ -18649,7 +18147,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
+    <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>469</v>
       </c>
@@ -18660,7 +18158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:3">
+    <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>236</v>
       </c>
@@ -18671,7 +18169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
+    <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>237</v>
       </c>
@@ -18682,7 +18180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
+    <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>238</v>
       </c>
@@ -18693,7 +18191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:3">
+    <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>232</v>
       </c>
@@ -18704,7 +18202,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:16384">
+    <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>475</v>
       </c>
@@ -35096,7 +34594,7 @@
       <c r="XFC43" s="7"/>
       <c r="XFD43" s="7"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:16384">
+    <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>218</v>
       </c>
@@ -51484,25 +50982,25 @@
       <c r="XFC44" s="7"/>
       <c r="XFD44" s="7"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
+    <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="80" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
+    <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+    </row>
+    <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>301</v>
       </c>
@@ -51513,7 +51011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
         <v>481</v>
       </c>
@@ -51524,7 +51022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>483</v>
       </c>
@@ -51535,7 +51033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>485</v>
       </c>
@@ -51603,18 +51101,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_7.20/task_server.xlsx
+++ b/config_7.20/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="497">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2075,10 +2075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2114,6 +2114,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2127,23 +2141,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2157,39 +2177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2211,31 +2200,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2250,16 +2224,42 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2337,19 +2337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,25 +2373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,31 +2397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,13 +2415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,6 +2537,63 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2561,73 +2618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,136 +2636,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3306,10 +3306,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7637,7 +7637,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10672,10 +10672,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16811,12 +16811,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -18087,10 +18087,10 @@
         <v>41</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
@@ -18101,15 +18101,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="4">
+        <v>41</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
         <v>42</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
         <v>3</v>
       </c>
     </row>
